--- a/src/infrastructure/web/controllers/order_details.xlsx
+++ b/src/infrastructure/web/controllers/order_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="74">
   <si>
     <t>Proveedor</t>
   </si>
@@ -22,22 +22,217 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>"65b5ca44414de73e82eaa966"</t>
-  </si>
-  <si>
-    <t>Dora Wells</t>
-  </si>
-  <si>
-    <t>Cameron Vaughan</t>
-  </si>
-  <si>
-    <t>"65b5ca42414de73e82eaa964"</t>
-  </si>
-  <si>
-    <t>Robert Weeks</t>
-  </si>
-  <si>
-    <t>Connor Santiago</t>
+    <t>Finca Funza</t>
+  </si>
+  <si>
+    <t>Lechuga Batavia</t>
+  </si>
+  <si>
+    <t>Lechuga Verde Lisa</t>
+  </si>
+  <si>
+    <t>Lechuga Verde Crespa</t>
+  </si>
+  <si>
+    <t>Lechuga Morada Crespa</t>
+  </si>
+  <si>
+    <t>Lechuga Romana</t>
+  </si>
+  <si>
+    <t>Lechuga Bambi x 3uni Morada</t>
+  </si>
+  <si>
+    <t>Lechuga Bambi x 3uni Combinada</t>
+  </si>
+  <si>
+    <t>Lechuga Bambi x 3uni Verde</t>
+  </si>
+  <si>
+    <t>Rugula Hindú</t>
+  </si>
+  <si>
+    <t>Rugula Inglesa</t>
+  </si>
+  <si>
+    <t>Rábanos</t>
+  </si>
+  <si>
+    <t>Mix Asiática</t>
+  </si>
+  <si>
+    <t>Perejil Crespo</t>
+  </si>
+  <si>
+    <t>Perejil Liso</t>
+  </si>
+  <si>
+    <t>Kale Imperial</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Amawa</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Naranja</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Morada</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Verde</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Roja</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Yerbabuena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guascas </t>
+  </si>
+  <si>
+    <t>Cilantro</t>
+  </si>
+  <si>
+    <t>Albahaca</t>
+  </si>
+  <si>
+    <t>Cebollín</t>
+  </si>
+  <si>
+    <t>Caléndula</t>
+  </si>
+  <si>
+    <t>Manzanilla</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Tomillo y Laurel</t>
+  </si>
+  <si>
+    <t>Limonaria</t>
+  </si>
+  <si>
+    <t>Ruda</t>
+  </si>
+  <si>
+    <t>Cidrón</t>
+  </si>
+  <si>
+    <t>Toronjil</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Yacón</t>
+  </si>
+  <si>
+    <t>Ají Dulce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomillo  </t>
+  </si>
+  <si>
+    <t>Eucalipto</t>
+  </si>
+  <si>
+    <t>Menta</t>
+  </si>
+  <si>
+    <t>Valeriana</t>
+  </si>
+  <si>
+    <t>Hinojo</t>
+  </si>
+  <si>
+    <t>Estragón</t>
+  </si>
+  <si>
+    <t>Albahaca Morada</t>
+  </si>
+  <si>
+    <t>Poleo</t>
+  </si>
+  <si>
+    <t>Cilantron-Culantro</t>
+  </si>
+  <si>
+    <t>Mix De Aromáticas</t>
+  </si>
+  <si>
+    <t>Mejorana</t>
+  </si>
+  <si>
+    <t>Orégano</t>
+  </si>
+  <si>
+    <t>Jengibre (Ginger)</t>
+  </si>
+  <si>
+    <t>Eneldo</t>
+  </si>
+  <si>
+    <t>Salvia</t>
+  </si>
+  <si>
+    <t>Diente de León</t>
+  </si>
+  <si>
+    <t>Cúrcuma</t>
+  </si>
+  <si>
+    <t>Ortiga</t>
+  </si>
+  <si>
+    <t>Menta Chocolate</t>
+  </si>
+  <si>
+    <t>Ají Chivato</t>
+  </si>
+  <si>
+    <t>Ají Jalapeño</t>
+  </si>
+  <si>
+    <t>Ají Limo</t>
+  </si>
+  <si>
+    <t>Ají Serrano</t>
+  </si>
+  <si>
+    <t>Ají Amazónico</t>
+  </si>
+  <si>
+    <t>Mix Tomillo, Orégano, Romero</t>
+  </si>
+  <si>
+    <t>Hinojo Cepa</t>
+  </si>
+  <si>
+    <t>Acedera</t>
+  </si>
+  <si>
+    <t>Albahaca Dulce</t>
+  </si>
+  <si>
+    <t>Verdolaga</t>
+  </si>
+  <si>
+    <t>Hierbas x Kilo</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>Uchuva</t>
   </si>
 </sst>
 </file>
@@ -414,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C140"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -440,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,29 +646,1514 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
-        <v>12</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>983222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>8</v>
+      <c r="C21">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" t="s">
+        <v>70</v>
+      </c>
+      <c r="C135">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/infrastructure/web/controllers/order_details.xlsx
+++ b/src/infrastructure/web/controllers/order_details.xlsx
@@ -11,12 +11,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Producto</t>
   </si>
   <si>
     <t>Valor a Exportar</t>
+  </si>
+  <si>
+    <t>Lechuga Batavia</t>
+  </si>
+  <si>
+    <t>Lechuga Verde Lisa</t>
+  </si>
+  <si>
+    <t>Lechuga Verde Crespa</t>
+  </si>
+  <si>
+    <t>Lechuga Morada Crespa</t>
+  </si>
+  <si>
+    <t>Lechuga Romana</t>
+  </si>
+  <si>
+    <t>Lechuga Bambi x 3uni Morada</t>
+  </si>
+  <si>
+    <t>Lechuga Bambi x 3uni Combinada</t>
+  </si>
+  <si>
+    <t>Lechuga Bambi x 3uni Verde</t>
+  </si>
+  <si>
+    <t>Rugula Hindú</t>
+  </si>
+  <si>
+    <t>Rugula Inglesa</t>
+  </si>
+  <si>
+    <t>Rábanos</t>
+  </si>
+  <si>
+    <t>Mix Asiática</t>
+  </si>
+  <si>
+    <t>Perejil Crespo</t>
+  </si>
+  <si>
+    <t>Perejil Liso</t>
+  </si>
+  <si>
+    <t>Kale Imperial</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Naranja</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Morada</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Verde</t>
+  </si>
+  <si>
+    <t>Ensalada Mix Baby Roja</t>
+  </si>
+  <si>
+    <t>Yerbabuena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guascas </t>
+  </si>
+  <si>
+    <t>Cilantro</t>
+  </si>
+  <si>
+    <t>Albahaca</t>
+  </si>
+  <si>
+    <t>Cebollín</t>
+  </si>
+  <si>
+    <t>Caléndula</t>
+  </si>
+  <si>
+    <t>Manzanilla</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Tomillo y Laurel</t>
+  </si>
+  <si>
+    <t>Limonaria</t>
+  </si>
+  <si>
+    <t>Ruda</t>
+  </si>
+  <si>
+    <t>Cidrón</t>
+  </si>
+  <si>
+    <t>Toronjil</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Yacón</t>
+  </si>
+  <si>
+    <t>Ají Dulce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomillo  </t>
+  </si>
+  <si>
+    <t>Eucalipto</t>
+  </si>
+  <si>
+    <t>Menta</t>
+  </si>
+  <si>
+    <t>Valeriana</t>
+  </si>
+  <si>
+    <t>Hinojo</t>
+  </si>
+  <si>
+    <t>Estragón</t>
+  </si>
+  <si>
+    <t>Albahaca Morada</t>
+  </si>
+  <si>
+    <t>Poleo</t>
+  </si>
+  <si>
+    <t>Cilantron-Culantro</t>
+  </si>
+  <si>
+    <t>Mix De Aromáticas</t>
+  </si>
+  <si>
+    <t>Mejorana</t>
+  </si>
+  <si>
+    <t>Orégano</t>
+  </si>
+  <si>
+    <t>Jengibre (Ginger)</t>
+  </si>
+  <si>
+    <t>Eneldo</t>
+  </si>
+  <si>
+    <t>Salvia</t>
+  </si>
+  <si>
+    <t>Diente de León</t>
+  </si>
+  <si>
+    <t>Cúrcuma</t>
+  </si>
+  <si>
+    <t>Ortiga</t>
+  </si>
+  <si>
+    <t>Menta Chocolate</t>
+  </si>
+  <si>
+    <t>Ají Chivato</t>
+  </si>
+  <si>
+    <t>Ají Jalapeño</t>
+  </si>
+  <si>
+    <t>Ají Limo</t>
+  </si>
+  <si>
+    <t>Ají Serrano</t>
+  </si>
+  <si>
+    <t>Ají Amazónico</t>
+  </si>
+  <si>
+    <t>Mix Tomillo, Orégano, Romero</t>
+  </si>
+  <si>
+    <t>Hinojo Cepa</t>
+  </si>
+  <si>
+    <t>Acedera</t>
+  </si>
+  <si>
+    <t>Albahaca Dulce</t>
+  </si>
+  <si>
+    <t>Verdolaga</t>
+  </si>
+  <si>
+    <t>Uchuva</t>
+  </si>
+  <si>
+    <t>Hierbas x Kilo</t>
   </si>
 </sst>
 </file>
@@ -393,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B67"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -408,6 +606,534 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/src/infrastructure/web/controllers/order_details.xlsx
+++ b/src/infrastructure/web/controllers/order_details.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Exported Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Order Details" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+  <si>
+    <t>Proveedor</t>
+  </si>
   <si>
     <t>Producto</t>
   </si>
   <si>
-    <t>Valor a Exportar</t>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Finca Funza</t>
   </si>
   <si>
     <t>Lechuga Batavia</t>
@@ -64,6 +70,12 @@
     <t>Kale Imperial</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Amawa</t>
+  </si>
+  <si>
     <t>Ensalada Mix Baby Naranja</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t>Ensalada Mix Baby Roja</t>
   </si>
   <si>
+    <t>William</t>
+  </si>
+  <si>
     <t>Yerbabuena</t>
   </si>
   <si>
@@ -211,10 +226,13 @@
     <t>Verdolaga</t>
   </si>
   <si>
+    <t>Hierbas x Kilo</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
     <t>Uchuva</t>
-  </si>
-  <si>
-    <t>Hierbas x Kilo</t>
   </si>
 </sst>
 </file>
@@ -591,547 +609,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C71"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
+      <c r="C52">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>318</v>
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/infrastructure/web/controllers/order_details.xlsx
+++ b/src/infrastructure/web/controllers/order_details.xlsx
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>696</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>1276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>1239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>1027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>1685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>1068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>1248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>1577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>1365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>1279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>1109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>1048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>1245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>1159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>1412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>1589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>1443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>1025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>840</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>1054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>1085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>1116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>1049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>1859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>1650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/infrastructure/web/controllers/order_details.xlsx
+++ b/src/infrastructure/web/controllers/order_details.xlsx
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>989</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>928</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>781</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>905</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>744</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>672</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>804</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/infrastructure/web/controllers/order_details.xlsx
+++ b/src/infrastructure/web/controllers/order_details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>Proveedor</t>
   </si>
@@ -28,72 +28,18 @@
     <t>Finca Funza</t>
   </si>
   <si>
-    <t>Lechuga Batavia</t>
+    <t>Perejil Crespo</t>
   </si>
   <si>
     <t>Bogotá</t>
   </si>
   <si>
-    <t>Lechuga Verde Lisa</t>
-  </si>
-  <si>
-    <t>Lechuga Verde Crespa</t>
-  </si>
-  <si>
-    <t>Lechuga Morada Crespa</t>
-  </si>
-  <si>
-    <t>Lechuga Romana</t>
-  </si>
-  <si>
-    <t>Lechuga Bambi x 3uni Morada</t>
-  </si>
-  <si>
-    <t>Lechuga Bambi x 3uni Combinada</t>
-  </si>
-  <si>
-    <t>Lechuga Bambi x 3uni Verde</t>
-  </si>
-  <si>
-    <t>Rugula Hindú</t>
-  </si>
-  <si>
-    <t>Rugula Inglesa</t>
-  </si>
-  <si>
-    <t>Rábanos</t>
-  </si>
-  <si>
-    <t>Mix Asiática</t>
-  </si>
-  <si>
-    <t>Perejil Crespo</t>
-  </si>
-  <si>
     <t>Perejil Liso</t>
   </si>
   <si>
-    <t>Kale Imperial</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Amawa</t>
-  </si>
-  <si>
-    <t>Ensalada Mix Baby Naranja</t>
-  </si>
-  <si>
-    <t>Ensalada Mix Baby Morada</t>
-  </si>
-  <si>
-    <t>Ensalada Mix Baby Verde</t>
-  </si>
-  <si>
-    <t>Ensalada Mix Baby Roja</t>
-  </si>
-  <si>
     <t>William</t>
   </si>
   <si>
@@ -230,9 +176,6 @@
   </si>
   <si>
     <t>Verdolaga</t>
-  </si>
-  <si>
-    <t>Hierbas x Kilo</t>
   </si>
   <si>
     <t>Rosales</t>
@@ -615,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D52"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -644,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -658,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>408</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -666,27 +609,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>317</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>461</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -694,13 +637,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -708,13 +651,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -722,13 +665,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>677</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -736,13 +679,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -750,13 +693,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -764,13 +707,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -778,13 +721,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -792,13 +735,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -806,13 +749,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -820,13 +763,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -834,13 +777,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -848,27 +791,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -876,13 +819,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -890,13 +833,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -904,13 +847,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -918,27 +861,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23">
-        <v>757</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -946,13 +889,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -960,13 +903,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -974,13 +917,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -988,13 +931,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1002,13 +945,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1016,13 +959,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1030,13 +973,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -1044,13 +987,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1058,13 +1001,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -1072,13 +1015,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -1086,13 +1029,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -1100,13 +1043,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1114,13 +1057,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -1128,13 +1071,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1142,13 +1085,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1156,13 +1099,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1170,13 +1113,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1184,13 +1127,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
@@ -1198,13 +1141,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -1212,13 +1155,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -1226,13 +1169,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -1240,13 +1183,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1254,13 +1197,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1268,13 +1211,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1282,13 +1225,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1296,13 +1239,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -1310,27 +1253,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50">
-        <v>210</v>
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -1338,282 +1281,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52">
-        <v>208</v>
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53">
-        <v>446</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54">
-        <v>193</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55">
-        <v>391</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56">
-        <v>919</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57">
-        <v>512</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58">
-        <v>437</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59">
-        <v>96</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60">
-        <v>982</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61">
-        <v>530</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62">
-        <v>669</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63">
-        <v>691</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64">
-        <v>404</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66">
-        <v>590</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67">
-        <v>182</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68">
-        <v>805</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70">
-        <v>535</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
